--- a/biology/Botanique/Eucalyptus_tetraptera/Eucalyptus_tetraptera.xlsx
+++ b/biology/Botanique/Eucalyptus_tetraptera/Eucalyptus_tetraptera.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eucalyptus tetraptera est un Eucalyptus de petite taille (1 à 3 mètres de hauteur) à l'écorce lisse, grise ou blanchâtre. Les jeunes feuilles sont pétiolées, ovales à largement elliptiques, de 12 x 7 cm. Les feuilles adultes sont pétiolées, elliptiques à lancéolées, épaisses, de 25 x 7 cm, concolores d'un vert brillant. Les fleurs roses apparaissent de la fin de l'hiver au milieu de l'été. Les fruits sont rouges, sessiles, oblongs et ailés le long des coins et mesurent 5 x 4,2 cm.
 La distribution est limitée aux plaines sableuses du littoral sud de l'Australie-Occidentale, de la chaîne de Stirling à l'est à Israelite Bay.
